--- a/create-user.xlsx
+++ b/create-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC IT\OJT 3 2024\Server\project-nestjs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDCD4C6-07F7-4D9E-90BE-6A08DD9DC2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB85803-2238-45E1-925E-D35D472FE905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,6 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +216,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,11 +501,12 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.88671875" customWidth="1"/>
     <col min="6" max="6" width="38.5546875" customWidth="1"/>
   </cols>
@@ -514,7 +518,7 @@
       <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D1" t="s">
@@ -555,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -575,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -595,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -615,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>36161</v>
+        <v>36158</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
